--- a/metadata/lightsheet/todo/University of Florida TMC (Light Sheet).xlsx
+++ b/metadata/lightsheet/todo/University of Florida TMC (Light Sheet).xlsx
@@ -13,6 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$10</definedName>
   </definedNames>
@@ -419,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,10 +431,15 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>SCN400</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>hour</t>
         </is>
@@ -442,33 +448,557 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>STELLARIS 5</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>month</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BZ-X710</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>year</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="inlineStr">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pannoramic MIDI II Digital Scanner</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="inlineStr">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>minute</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MoticEasyScan One</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EVOS M7000</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NovaSeq X</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NanoZoomer 2.0-HT</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>timsTOF Ultra 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lightsheet 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Phenocycler-Fusion 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DNBSEQ-T7</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>timsTOF Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AVITI</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>timsTOF Pro 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Q Exactive UHMR</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Q Exactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>timsTOF SCP</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Zyla 4.2 sCMOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Helios</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>uScopeHXII-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Custom: Multiphoton</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>QTRAP 5500</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>timsTOF Ultra</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BZ-X800</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CyTOF 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>G4X Spatial Sequencer</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>NextSeq 500</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>NanoZoomer S360</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Hyperion Imaging System</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>NovaSeq X Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CyTOF XT</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NanoZoomer-SQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>NextSeq 550</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Axio Zoom.V16</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Digital Spatial Profiler</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>timsTOF FleX</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>timsTOF FleX MALDI-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>NanoZoomer S210</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BZ-X810</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Axio Observer 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Cytek Northern Lights</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>IN Cell Analyzer 2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>timsTOF HT</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>PhenoImager Fusion</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>DM6 B</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Phenocycler-Fusion 2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Aperio CS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Lumos Tribrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Resolve Biosciences Molecular Cartography</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>MALDI timsTOF Flex Prototype</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>TissueScope LE Slide Scanner</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>VS200 Slide Scanner</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Axio Observer 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Axio Observer 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>HiSeq 2500</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Orbitrap Eclipse Tribrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Cell DIVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>MERSCOPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>NextSeq 2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>NovaSeq 6000</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>In-House</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>HiSeq 4000</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>solariX</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Panoramic 150 Digital Scanner</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Aperio AT2</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>MIBIscope</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Biomark HD</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>NanoZoomer S60</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>CosMx Spatial Molecular Imager</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MERSCOPE Ultra</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Axio Scan.Z1</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Juno System</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Q Exactive HF</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Xenium Analyzer</t>
         </is>
       </c>
     </row>
@@ -483,7 +1013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,7 +1048,220 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HBM228.TRWX.356</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Zeiss LightSheet Z.1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM228.TRWX.356</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HBM344.QWFF.388</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Zeiss LightSheet Z.1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM344.QWFF.388</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HBM363.TMWJ.967</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Zeiss LightSheet Z.1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM363.TMWJ.967</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HBM384.XMBW.725</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Zeiss LightSheet Z.1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM384.XMBW.725</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HBM392.QWSF.974</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Zeiss LightSheet Z.1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM392.QWSF.974</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HBM423.JZTB.864</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Zeiss LightSheet Z.1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM423.JZTB.864</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HBM633.BLRX.687</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Zeiss LightSheet Z.1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM633.BLRX.687</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HBM675.SDNC.963</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Zeiss LightSheet Z.1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM675.SDNC.963</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HBM849.QGGK.533</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Zeiss LightSheet Z.1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM849.QGGK.533</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E10"/>
+  <dataValidations count="1">
+    <dataValidation sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$A$1:$A$77</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1049,10 +1792,10 @@
   <autoFilter ref="A1:D28"/>
   <dataValidations count="2">
     <dataValidation sqref="C2 C5 C8 C11 C14 C17 C20 C23 C26" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$A$1:$A$2</formula1>
+      <formula1>_validation_data!$B$1:$B$2</formula1>
     </dataValidation>
     <dataValidation sqref="C3 C6 C9 C12 C15 C18 C21 C24 C27" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$5</formula1>
+      <formula1>_validation_data!$C$1:$C$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/metadata/lightsheet/todo/University of Florida TMC (Light Sheet).xlsx
+++ b/metadata/lightsheet/todo/University of Florida TMC (Light Sheet).xlsx
@@ -13,7 +13,6 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$10</definedName>
   </definedNames>
@@ -420,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,15 +430,10 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>SCN400</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
         <is>
           <t>hour</t>
         </is>
@@ -448,557 +442,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>STELLARIS 5</t>
+          <t>No</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>month</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>BZ-X710</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>year</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pannoramic MIDI II Digital Scanner</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>minute</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>MoticEasyScan One</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>EVOS M7000</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NovaSeq X</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>NanoZoomer 2.0-HT</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>timsTOF Ultra 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Lightsheet 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Phenocycler-Fusion 1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>DNBSEQ-T7</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>timsTOF Pro</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AVITI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>timsTOF Pro 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Q Exactive UHMR</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Q Exactive</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>timsTOF SCP</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Zyla 4.2 sCMOS</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Helios</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>uScopeHXII-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Custom: Multiphoton</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>QTRAP 5500</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>timsTOF Ultra</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>BZ-X800</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>CyTOF 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>G4X Spatial Sequencer</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>NextSeq 500</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>NanoZoomer S360</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Hyperion Imaging System</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>NovaSeq X Plus</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>CyTOF XT</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>NanoZoomer-SQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>NextSeq 550</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Axio Zoom.V16</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Digital Spatial Profiler</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>timsTOF FleX</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>timsTOF FleX MALDI-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>NanoZoomer S210</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>BZ-X810</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Axio Observer 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Cytek Northern Lights</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>IN Cell Analyzer 2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>timsTOF HT</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>PhenoImager Fusion</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>DM6 B</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Phenocycler-Fusion 2.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Aperio CS2</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Lumos Tribrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Resolve Biosciences Molecular Cartography</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>MALDI timsTOF Flex Prototype</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>TissueScope LE Slide Scanner</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>VS200 Slide Scanner</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Axio Observer 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Axio Observer 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>HiSeq 2500</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Orbitrap Eclipse Tribrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Cell DIVE</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>MERSCOPE</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>NextSeq 2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>NovaSeq 6000</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>In-House</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>HiSeq 4000</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>solariX</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Panoramic 150 Digital Scanner</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Aperio AT2</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>MIBIscope</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Biomark HD</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>NanoZoomer S60</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>CosMx Spatial Molecular Imager</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>MERSCOPE Ultra</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Axio Scan.Z1</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Juno System</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Q Exactive HF</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Xenium Analyzer</t>
         </is>
       </c>
     </row>
@@ -1013,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1048,220 +518,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>HBM228.TRWX.356</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Zeiss LightSheet Z.1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM228.TRWX.356</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>HBM344.QWFF.388</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Zeiss LightSheet Z.1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.QWFF.388</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>HBM363.TMWJ.967</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Zeiss LightSheet Z.1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM363.TMWJ.967</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HBM384.XMBW.725</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Zeiss LightSheet Z.1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM384.XMBW.725</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>HBM392.QWSF.974</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Zeiss LightSheet Z.1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM392.QWSF.974</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>HBM423.JZTB.864</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Zeiss LightSheet Z.1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM423.JZTB.864</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>HBM633.BLRX.687</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Zeiss LightSheet Z.1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM633.BLRX.687</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>HBM675.SDNC.963</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Zeiss LightSheet Z.1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM675.SDNC.963</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>HBM849.QGGK.533</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Zeiss LightSheet Z.1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM849.QGGK.533</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E10"/>
-  <dataValidations count="1">
-    <dataValidation sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$A$1:$A$77</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1792,10 +1049,10 @@
   <autoFilter ref="A1:D28"/>
   <dataValidations count="2">
     <dataValidation sqref="C2 C5 C8 C11 C14 C17 C20 C23 C26" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$2</formula1>
+      <formula1>_validation_data!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation sqref="C3 C6 C9 C12 C15 C18 C21 C24 C27" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$5</formula1>
+      <formula1>_validation_data!$B$1:$B$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
